--- a/artfynd/A 71219-2021.xlsx
+++ b/artfynd/A 71219-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3160,6 +3160,137 @@
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112135713</v>
+      </c>
+      <c r="B23" t="n">
+        <v>73689</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>308</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Chaenotheca gracillima</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Styggdalen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>441133.7720151987</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7171352.948989114</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Frostviken</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gråal</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Alnus incana</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Alnus incana</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Robin Isaksson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Robin Isaksson, Karl Soler Kinnerbäck</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 71219-2021.xlsx
+++ b/artfynd/A 71219-2021.xlsx
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>441133.7720151987</v>
+        <v>441134</v>
       </c>
       <c r="R23" t="n">
-        <v>7171352.948989114</v>
+        <v>7171353</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3238,19 +3238,9 @@
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">

--- a/artfynd/A 71219-2021.xlsx
+++ b/artfynd/A 71219-2021.xlsx
@@ -3165,7 +3165,7 @@
         <v>112135713</v>
       </c>
       <c r="B23" t="n">
-        <v>73689</v>
+        <v>73813</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>

--- a/artfynd/A 71219-2021.xlsx
+++ b/artfynd/A 71219-2021.xlsx
@@ -3165,7 +3165,7 @@
         <v>112135713</v>
       </c>
       <c r="B23" t="n">
-        <v>73813</v>
+        <v>73827</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
